--- a/Document/300_DUYDキャラクター仕様.xlsx
+++ b/Document/300_DUYDキャラクター仕様.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\新しいフォルダー (2)\Document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DUYD\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4919979B-09DC-4393-A869-3834D7A8844E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC295D6B-8BC3-4E9B-8E10-81953A83CDA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{A7C1605A-4F8D-422A-A50A-47C3F46D6375}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>更新履歴</t>
     <rPh sb="0" eb="4">
@@ -324,6 +324,115 @@
     </rPh>
     <rPh sb="18" eb="19">
       <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>つるはしで敵にダメージを与えることもできます</t>
+    <rPh sb="5" eb="6">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>アタ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>石のダメージは</t>
+    <rPh sb="0" eb="1">
+      <t>イシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>強化</t>
+    <rPh sb="0" eb="2">
+      <t>キョウカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[H]キーを押すとゲームが一時停止して強化ウィンドウを開きます</t>
+    <rPh sb="6" eb="7">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>イチジ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>テイシ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>キョウカ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ヒラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>イメージ画像</t>
+    <rPh sb="4" eb="6">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>強化鉱石を一定数集めるとポイントが1つ増えます</t>
+    <rPh sb="0" eb="4">
+      <t>キョウカコウセキ</t>
+    </rPh>
+    <rPh sb="5" eb="9">
+      <t>イッテイスウアツ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>フ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>このマークを左クリックすると対応した数値が１上がります</t>
+    <rPh sb="6" eb="7">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>スウチ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>各数値の計算方法</t>
+    <rPh sb="0" eb="3">
+      <t>カクスウチ</t>
+    </rPh>
+    <rPh sb="4" eb="8">
+      <t>ケイサンホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>HP：30ポイント以下の時</t>
+    <rPh sb="9" eb="11">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>トキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>HP：30ポイント以上の時</t>
+    <rPh sb="9" eb="11">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>トキ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -340,7 +449,7 @@
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>100フレーム（約1.7秒）</t>
+      <t>２0フレーム（約0.3秒）</t>
     </r>
     <r>
       <rPr>
@@ -356,19 +465,19 @@
     <rPh sb="0" eb="1">
       <t>オ</t>
     </rPh>
-    <rPh sb="13" eb="14">
+    <rPh sb="12" eb="13">
       <t>ヤク</t>
     </rPh>
-    <rPh sb="17" eb="18">
+    <rPh sb="16" eb="17">
       <t>ビョウ</t>
     </rPh>
-    <rPh sb="24" eb="26">
+    <rPh sb="23" eb="25">
       <t>ニュウリョク</t>
     </rPh>
-    <rPh sb="27" eb="28">
+    <rPh sb="26" eb="27">
       <t>ウ</t>
     </rPh>
-    <rPh sb="29" eb="30">
+    <rPh sb="28" eb="29">
       <t>ツ</t>
     </rPh>
     <phoneticPr fontId="2"/>
@@ -386,7 +495,7 @@
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>120フレーム（約2秒）</t>
+      <t>20フレーム（約0.3秒）</t>
     </r>
     <r>
       <rPr>
@@ -402,124 +511,85 @@
     <rPh sb="0" eb="1">
       <t>ナ</t>
     </rPh>
-    <rPh sb="13" eb="14">
+    <rPh sb="12" eb="13">
       <t>ヤク</t>
     </rPh>
-    <rPh sb="15" eb="16">
+    <rPh sb="16" eb="17">
       <t>ビョウ</t>
     </rPh>
-    <rPh sb="22" eb="24">
+    <rPh sb="23" eb="25">
       <t>ニュウリョク</t>
     </rPh>
-    <rPh sb="25" eb="26">
+    <rPh sb="26" eb="27">
       <t>ウ</t>
     </rPh>
-    <rPh sb="27" eb="28">
+    <rPh sb="28" eb="29">
       <t>ツ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>つるはしで敵にダメージを与えることもできます</t>
-    <rPh sb="5" eb="6">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>アタ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>石のダメージは</t>
-    <rPh sb="0" eb="1">
-      <t>イシ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>強化</t>
-    <rPh sb="0" eb="2">
-      <t>キョウカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[H]キーを押すとゲームが一時停止して強化ウィンドウを開きます</t>
-    <rPh sb="6" eb="7">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>イチジ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>テイシ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>キョウカ</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>ヒラ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>イメージ画像</t>
-    <rPh sb="4" eb="6">
-      <t>ガゾウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>強化鉱石を一定数集めるとポイントが1つ増えます</t>
-    <rPh sb="0" eb="4">
-      <t>キョウカコウセキ</t>
-    </rPh>
-    <rPh sb="5" eb="9">
-      <t>イッテイスウアツ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>フ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>このマークを左クリックすると対応した数値が１上がります</t>
-    <rPh sb="6" eb="7">
-      <t>ヒダリ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>タイオウ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>スウチ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>ア</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>各数値の計算方法</t>
-    <rPh sb="0" eb="3">
-      <t>カクスウチ</t>
-    </rPh>
-    <rPh sb="4" eb="8">
-      <t>ケイサンホウホウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>H＝H×1.05</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>HP：30ポイント以下の時</t>
-    <rPh sb="9" eb="11">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>トキ</t>
-    </rPh>
+    <r>
+      <t>Hn＝Hn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>₋</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>₁</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>×1.05</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>Hn＝Hn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>₋₁</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>×1.025</t>
+    </r>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -527,7 +597,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -582,6 +652,29 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="8">
@@ -653,7 +746,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -700,6 +793,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1408,15 +1504,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
+      <xdr:colOff>4762</xdr:colOff>
       <xdr:row>56</xdr:row>
-      <xdr:rowOff>42863</xdr:rowOff>
+      <xdr:rowOff>71438</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>52</xdr:col>
-      <xdr:colOff>143694</xdr:colOff>
+      <xdr:colOff>34156</xdr:colOff>
       <xdr:row>60</xdr:row>
-      <xdr:rowOff>33442</xdr:rowOff>
+      <xdr:rowOff>62017</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -1431,7 +1527,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7324725" y="8577263"/>
+          <a:off x="7215187" y="8605838"/>
           <a:ext cx="3801294" cy="600179"/>
           <a:chOff x="8767763" y="5857875"/>
           <a:chExt cx="3801294" cy="600179"/>
@@ -2636,10 +2732,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFD89370-1DE1-4DF5-942C-CF8F59DF7864}">
-  <dimension ref="A1:I104"/>
+  <dimension ref="A1:J116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B49" workbookViewId="0">
-      <selection activeCell="I74" sqref="I74"/>
+    <sheetView tabSelected="1" topLeftCell="B61" workbookViewId="0">
+      <selection activeCell="N77" sqref="N77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.0625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.7"/>
@@ -2752,105 +2848,118 @@
     </row>
     <row r="52" spans="5:7" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E52" s="15" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F52" s="15"/>
     </row>
     <row r="54" spans="5:7" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F54" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="56" spans="5:7" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F56" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="69" spans="6:10" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="F69" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="71" spans="6:10" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="H71" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="69" spans="6:9" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="F69" t="s">
+    <row r="73" spans="6:10" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="I73" s="16" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="71" spans="6:9" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="H71" t="s">
+    <row r="74" spans="6:10" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="I74" s="16"/>
+    </row>
+    <row r="75" spans="6:10" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="I75" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="73" spans="6:9" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="I73" t="s">
+    <row r="76" spans="6:10" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="J76" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="77" spans="6:10" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="I77" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="74" spans="6:9" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="I74" t="s">
+    <row r="78" spans="6:10" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="J78" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="93" spans="5:7" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="E93" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="F93" s="15"/>
+    </row>
+    <row r="95" spans="5:7" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="F95" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="96" spans="5:7" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="G96" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="98" spans="5:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="G98" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="100" spans="5:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="H100" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="102" spans="5:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="G102" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="107" spans="5:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="E107" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F107" s="15"/>
+    </row>
+    <row r="109" spans="5:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="F109" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="111" spans="5:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="G111" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="113" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="G113" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="114" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="H114" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="75" spans="6:9" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="I75" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="81" spans="5:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="E81" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="F81" s="15"/>
-    </row>
-    <row r="83" spans="5:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="F83" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="84" spans="5:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="G84" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="86" spans="5:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="G86" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="88" spans="5:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="H88" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="90" spans="5:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="G90" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="95" spans="5:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="E95" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="F95" s="15"/>
-    </row>
-    <row r="97" spans="6:9" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="F97" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="99" spans="6:9" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="G99" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="101" spans="6:9" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="G101" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="102" spans="6:9" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="H102" t="s">
+    <row r="116" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="I116" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="104" spans="6:9" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="I104" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/Document/300_DUYDキャラクター仕様.xlsx
+++ b/Document/300_DUYDキャラクター仕様.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DUYD\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC295D6B-8BC3-4E9B-8E10-81953A83CDA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD894887-0B4E-467C-957B-3E5B3820F31E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{A7C1605A-4F8D-422A-A50A-47C3F46D6375}"/>
   </bookViews>
@@ -2735,7 +2735,7 @@
   <dimension ref="A1:J116"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B61" workbookViewId="0">
-      <selection activeCell="N77" sqref="N77"/>
+      <selection activeCell="AK69" sqref="AK69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.0625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.7"/>

--- a/Document/300_DUYDキャラクター仕様.xlsx
+++ b/Document/300_DUYDキャラクター仕様.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DUYD\Document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DUYD1\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD894887-0B4E-467C-957B-3E5B3820F31E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{887B1576-85BC-46BB-86E9-4CC37B8EA755}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{A7C1605A-4F8D-422A-A50A-47C3F46D6375}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{A7C1605A-4F8D-422A-A50A-47C3F46D6375}"/>
   </bookViews>
   <sheets>
     <sheet name="更新履歴" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t>更新履歴</t>
     <rPh sb="0" eb="4">
@@ -338,13 +338,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>石のダメージは</t>
-    <rPh sb="0" eb="1">
-      <t>イシ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>強化</t>
     <rPh sb="0" eb="2">
       <t>キョウカ</t>
@@ -413,16 +406,6 @@
     </rPh>
     <rPh sb="4" eb="8">
       <t>ケイサンホウホウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>HP：30ポイント以下の時</t>
-    <rPh sb="9" eb="11">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>トキ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -529,67 +512,147 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <r>
-      <t>Hn＝Hn</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>₋</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>₁</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>×1.05</t>
-    </r>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t>Hn＝Hn</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>₋₁</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>×1.025</t>
-    </r>
+    <t>HP：50ポイント以下の時</t>
+    <rPh sb="9" eb="11">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>トキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>HP：50ポイント以上の時</t>
+    <rPh sb="9" eb="11">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>トキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>H＝Hp×1.05</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>H＝Hp×1.025</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>O2タンク：50ポイント以下の時</t>
+    <rPh sb="12" eb="14">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>トキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>O＝Op×1.05</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>O=Op×1.025</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>筋力：50ポイント以上の時</t>
+    <rPh sb="0" eb="2">
+      <t>キンリョク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>トキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>筋力：50ポイント以下の時</t>
+    <rPh sb="0" eb="2">
+      <t>キンリョク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>トキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>O2タンク：50ポイント以上の時</t>
+    <rPh sb="12" eb="14">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>トキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>つるはし：50ポイント以下の時</t>
+    <rPh sb="11" eb="13">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>トキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>S＝Sp×1.05</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>S=Sp×1.025</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>P=Pp×1.05</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>P=Pp×1.025</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>H,O,S,Pは反映される数値</t>
+    <rPh sb="8" eb="10">
+      <t>ハンエイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>スウチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Hp,Op,Sp,Ppは強化ウィンドウ上の数値</t>
+    <rPh sb="12" eb="14">
+      <t>キョウカ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>スウチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>石のダメージは筋力数値がそのままダメージとなります</t>
+    <rPh sb="0" eb="1">
+      <t>イシ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>キンリョク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>スウチ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -597,7 +660,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -654,13 +717,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -668,13 +724,6 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="8">
@@ -795,7 +844,7 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -893,8 +942,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3681413" y="8591550"/>
-          <a:ext cx="3295650" cy="1671638"/>
+          <a:off x="3689985" y="8591550"/>
+          <a:ext cx="3355658" cy="1671638"/>
           <a:chOff x="3681413" y="8677275"/>
           <a:chExt cx="3295650" cy="1671638"/>
         </a:xfrm>
@@ -1527,8 +1576,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7215187" y="8605838"/>
-          <a:ext cx="3801294" cy="600179"/>
+          <a:off x="7289482" y="8605838"/>
+          <a:ext cx="3869874" cy="600179"/>
           <a:chOff x="8767763" y="5857875"/>
           <a:chExt cx="3801294" cy="600179"/>
         </a:xfrm>
@@ -2696,21 +2745,21 @@
       <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.0625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultColWidth="2.09765625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="5" max="5" width="5.3125" customWidth="1"/>
-    <col min="6" max="6" width="7.3125" customWidth="1"/>
-    <col min="7" max="7" width="11.8125" customWidth="1"/>
+    <col min="5" max="5" width="5.296875" customWidth="1"/>
+    <col min="6" max="6" width="7.296875" customWidth="1"/>
+    <col min="7" max="7" width="11.796875" customWidth="1"/>
     <col min="8" max="8" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" s="1" customFormat="1" ht="32.25" x14ac:dyDescent="0.7">
+    <row r="1" spans="2:8" s="1" customFormat="1" ht="32.4" x14ac:dyDescent="0.45">
       <c r="B1" s="3"/>
       <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="4" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E4" s="5" t="s">
         <v>3</v>
       </c>
@@ -2732,19 +2781,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFD89370-1DE1-4DF5-942C-CF8F59DF7864}">
-  <dimension ref="A1:J116"/>
+  <dimension ref="A1:V116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B61" workbookViewId="0">
-      <selection activeCell="AK69" sqref="AK69"/>
+    <sheetView tabSelected="1" topLeftCell="B5" workbookViewId="0">
+      <selection activeCell="I117" sqref="I117"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.0625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultColWidth="2.09765625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
     <col min="2" max="2" width="20" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:6" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2755,211 +2804,265 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="3" spans="1:6" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B3" s="11"/>
       <c r="D3" s="10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="5" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="7" spans="1:6" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="11"/>
       <c r="D7" s="10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="9" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="10" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="12" spans="1:6" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="11"/>
       <c r="D12" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="14" spans="1:6" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B14" s="13"/>
       <c r="C14" s="14"/>
       <c r="E14" s="12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="16" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="7:7" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="18" spans="7:7" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G18" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="5:7" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="40" spans="5:7" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F40" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="42" spans="5:7" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="42" spans="5:7" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G42" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="43" spans="5:7" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="43" spans="5:7" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G43" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="5:7" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="44" spans="5:7" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G44" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="45" spans="5:7" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="45" spans="5:7" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G45" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="47" spans="5:7" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="47" spans="5:7" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E47" s="15" t="s">
         <v>21</v>
       </c>
       <c r="F47" s="15"/>
     </row>
-    <row r="49" spans="5:7" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="49" spans="5:7" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F49" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="50" spans="5:7" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="50" spans="5:7" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G50" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="52" spans="5:7" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="52" spans="5:7" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E52" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F52" s="15"/>
+    </row>
+    <row r="54" spans="5:7" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F54" t="s">
         <v>35</v>
       </c>
-      <c r="F52" s="15"/>
-    </row>
-    <row r="54" spans="5:7" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="F54" t="s">
+    </row>
+    <row r="56" spans="5:7" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F56" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="56" spans="5:7" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="F56" t="s">
+    <row r="69" spans="6:22" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F69" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="69" spans="6:10" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="F69" t="s">
+    <row r="71" spans="6:22" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H71" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="71" spans="6:10" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="H71" t="s">
+    <row r="73" spans="6:22" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I73" s="16" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="73" spans="6:10" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="I73" s="16" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="74" spans="6:10" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="74" spans="6:22" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I74" s="16"/>
     </row>
-    <row r="75" spans="6:10" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="75" spans="6:22" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I75" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="76" spans="6:10" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+        <v>43</v>
+      </c>
+      <c r="U75" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="76" spans="6:22" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="J76" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="77" spans="6:10" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="V76" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="77" spans="6:22" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I77" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="78" spans="6:10" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+        <v>44</v>
+      </c>
+      <c r="U77" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="78" spans="6:22" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="J78" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="93" spans="5:7" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="V78" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="80" spans="6:22" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I80" t="s">
+        <v>51</v>
+      </c>
+      <c r="U80" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="81" spans="5:22" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="J81" t="s">
+        <v>54</v>
+      </c>
+      <c r="V81" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="82" spans="5:22" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I82" t="s">
+        <v>50</v>
+      </c>
+      <c r="U82" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="83" spans="5:22" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="J83" t="s">
+        <v>55</v>
+      </c>
+      <c r="V83" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="85" spans="5:22" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G85" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="87" spans="5:22" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G87" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="93" spans="5:22" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E93" s="15" t="s">
         <v>24</v>
       </c>
       <c r="F93" s="15"/>
     </row>
-    <row r="95" spans="5:7" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="95" spans="5:22" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F95" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="96" spans="5:7" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="96" spans="5:22" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G96" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="98" spans="5:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="98" spans="5:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G98" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="100" spans="5:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="100" spans="5:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H100" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="102" spans="5:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="102" spans="5:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G102" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="107" spans="5:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="107" spans="5:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E107" s="15" t="s">
         <v>29</v>
       </c>
       <c r="F107" s="15"/>
     </row>
-    <row r="109" spans="5:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="109" spans="5:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F109" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="111" spans="5:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="111" spans="5:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G111" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="113" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="113" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G113" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="114" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="114" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H114" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="116" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="116" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I116" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/Document/300_DUYDキャラクター仕様.xlsx
+++ b/Document/300_DUYDキャラクター仕様.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DUYD1\Document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\新しいフォルダー\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{887B1576-85BC-46BB-86E9-4CC37B8EA755}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3A8A2FA-868F-4E80-A678-BF697CDAB5F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{A7C1605A-4F8D-422A-A50A-47C3F46D6375}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
   <si>
     <t>更新履歴</t>
     <rPh sb="0" eb="4">
@@ -653,6 +653,175 @@
     <rPh sb="9" eb="11">
       <t>スウチ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>敵</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>敵の数値はすべて共通です</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>スウチ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>キョウツウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>イメージ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>①</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>②</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>③</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>④</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>⑤</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>⑥</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>階層が10上がるごとに出てくる敵の見た目が一つ右に変化します</t>
+    <rPh sb="0" eb="2">
+      <t>カイソウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヘンカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>敵のステータス</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>敵には以下のステータスがあります</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>イカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・HP</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・AGR</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・STG</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>HP</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>敵キャラの体力です</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>タイリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>数値が０になったら敵は消滅します</t>
+    <rPh sb="0" eb="2">
+      <t>スウチ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ショウメツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>第一階層でのHPは３とします</t>
+    <rPh sb="0" eb="4">
+      <t>ダイイッカイソウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>階層が上がるごとに数値も上昇します</t>
+    <rPh sb="0" eb="2">
+      <t>カイソウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>スウチ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジョウショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>計算式</t>
+    <rPh sb="0" eb="3">
+      <t>ケイサンシキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>H＝3×1.015n</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2439,6 +2608,106 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2193E224-79BA-4E5E-995F-D2BA3E533298}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3604260" y="18745200"/>
+          <a:ext cx="1440180" cy="1981199"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>21058</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="図 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC9F2432-ACF8-4076-8559-BC1518494B75}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5204460" y="18745200"/>
+          <a:ext cx="1461238" cy="1981200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2781,10 +3050,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFD89370-1DE1-4DF5-942C-CF8F59DF7864}">
-  <dimension ref="A1:V116"/>
+  <dimension ref="A1:W163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B5" workbookViewId="0">
-      <selection activeCell="I117" sqref="I117"/>
+    <sheetView tabSelected="1" topLeftCell="B145" workbookViewId="0">
+      <selection activeCell="J165" sqref="J165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.09765625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -3050,19 +3319,129 @@
         <v>31</v>
       </c>
     </row>
-    <row r="113" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="113" spans="2:9" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G113" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="114" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="114" spans="2:9" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H114" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="116" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="116" spans="2:9" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I116" t="s">
         <v>60</v>
+      </c>
+    </row>
+    <row r="118" spans="2:9" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B118" s="13"/>
+      <c r="C118" s="14"/>
+      <c r="E118" s="12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="120" spans="2:9" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E120" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="122" spans="2:9" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E122" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="138" spans="6:23" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G138" t="s">
+        <v>64</v>
+      </c>
+      <c r="J138" t="s">
+        <v>65</v>
+      </c>
+      <c r="M138" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q138" t="s">
+        <v>67</v>
+      </c>
+      <c r="T138" t="s">
+        <v>68</v>
+      </c>
+      <c r="W138" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="141" spans="6:23" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F141" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="143" spans="6:23" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F143" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="G143" s="15"/>
+      <c r="H143" s="15"/>
+      <c r="I143" s="15"/>
+      <c r="J143" s="15"/>
+      <c r="K143" s="15"/>
+    </row>
+    <row r="145" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G145" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="147" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H147" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="148" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H148" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="149" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H149" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="152" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G152" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="H152" s="15"/>
+    </row>
+    <row r="154" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H154" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="156" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I156" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="158" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I158" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="159" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I159" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="161" spans="9:11" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I161" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="J161" s="16"/>
+      <c r="K161" s="16"/>
+    </row>
+    <row r="163" spans="9:11" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="J163" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/Document/300_DUYDキャラクター仕様.xlsx
+++ b/Document/300_DUYDキャラクター仕様.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\新しいフォルダー\Document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\新しいフォルダー (2)\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3A8A2FA-868F-4E80-A678-BF697CDAB5F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32E429CD-31A6-47E2-A4F1-C65D77C546AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{A7C1605A-4F8D-422A-A50A-47C3F46D6375}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{A7C1605A-4F8D-422A-A50A-47C3F46D6375}"/>
   </bookViews>
   <sheets>
     <sheet name="更新履歴" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="119">
   <si>
     <t>更新履歴</t>
     <rPh sb="0" eb="4">
@@ -824,12 +824,533 @@
     <t>H＝3×1.015n</t>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>（体力）</t>
+    <rPh sb="1" eb="3">
+      <t>タイリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>（移動）</t>
+    <rPh sb="1" eb="3">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Hは反映される数値</t>
+    <rPh sb="2" eb="4">
+      <t>ハンエイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>スウチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ｎは現在の階層数</t>
+    <rPh sb="2" eb="4">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カイソウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>STG</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>敵キャラの攻撃力です</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>コウゲキリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>（攻撃）</t>
+    <rPh sb="1" eb="3">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プレイヤーに攻撃が当たると（STG）の整数の値分プレイヤーのHPが減少します</t>
+    <rPh sb="6" eb="8">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>セイスウ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ゲンショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>S＝１</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ステータス解説</t>
+    <rPh sb="5" eb="7">
+      <t>カイセツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>HP：</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>初期値は３から</t>
+    <rPh sb="0" eb="3">
+      <t>ショキチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プレイヤーの体力です。値が０になると死にます。</t>
+    <rPh sb="6" eb="8">
+      <t>タイリョク</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>O2タンク：</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プレイヤーが特定の行動をすると減少します</t>
+    <rPh sb="6" eb="8">
+      <t>トクテイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>コウドウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ゲンショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>値が０になるとHPが</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>１秒ごとに30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（固定）減少し続けます</t>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ビョウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>コテイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ゲンショウ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ツヅ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>筋力：</t>
+    <rPh sb="0" eb="2">
+      <t>キンリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プレイヤーの攻撃力です。</t>
+    <rPh sb="6" eb="9">
+      <t>コウゲキリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>初期値は30です</t>
+    <rPh sb="0" eb="3">
+      <t>ショキチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>O2の減少要因</t>
+    <rPh sb="3" eb="7">
+      <t>ゲンショウヨウイン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・１秒ごとに１減少</t>
+    <rPh sb="2" eb="3">
+      <t>ビョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ゲンショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・つるはしで岩を破壊すると３減少</t>
+    <rPh sb="6" eb="7">
+      <t>イワ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ハカイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ゲンショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・敵の攻撃を受けると３減少</t>
+    <rPh sb="1" eb="2">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ゲンショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>次の階層に移動したとき</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>最大値の３分の１</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>HPが回復します</t>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カイソウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>サイダイチ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>カイフク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>各階層の酸素鉱石を破壊すると</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>最大値の４分の１</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>回復します</t>
+    </r>
+    <rPh sb="0" eb="3">
+      <t>カクカイソウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>サンソ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>コウセキ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ハカイ</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>サイダイチ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>カイフク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>初期値は１とします</t>
+    <rPh sb="0" eb="3">
+      <t>ショキチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ダメージ量は筋力ステータスの４分の１とします</t>
+    <rPh sb="4" eb="5">
+      <t>リョウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>キンリョク</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ブン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>つるはし：</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プレイヤーの採掘速度です</t>
+    <rPh sb="6" eb="8">
+      <t>サイクツ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ソクド</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ステータスポイントが上がるとHPの最大値が増えます</t>
+    <rPh sb="10" eb="11">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>サイダイチ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>フ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ステータスポイントが上がるとO2タンクの最大値が増えます</t>
+    <rPh sb="10" eb="11">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="20" eb="23">
+      <t>サイダイチ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>フ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ステータスポイントが上がると相手に与えるダメージが上がります</t>
+    <rPh sb="10" eb="11">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>アイテ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>アタ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>プレイヤーのつるはしが岩に当たるとこの</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>値分岩の体力を減らします</t>
+    </r>
+    <rPh sb="11" eb="12">
+      <t>イワ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>イワ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>タイリョク</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ヘ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>攻撃が敵に当たった時このステータスの</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>整数の値分敵の体力を減らします</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>セイスウ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>タイリョク</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ヘ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ステータスポイントが上がると採掘速度が上がります</t>
+    <rPh sb="10" eb="11">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>サイクツ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ソクド</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>つるはしを振る速度は一定</t>
+    <rPh sb="5" eb="6">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ソクド</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>イッテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -889,6 +1410,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -964,7 +1493,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1014,6 +1543,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1111,8 +1643,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3689985" y="8591550"/>
-          <a:ext cx="3355658" cy="1671638"/>
+          <a:off x="3695700" y="8591550"/>
+          <a:ext cx="3395663" cy="1671638"/>
           <a:chOff x="3681413" y="8677275"/>
           <a:chExt cx="3295650" cy="1671638"/>
         </a:xfrm>
@@ -1745,8 +2277,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7289482" y="8605838"/>
-          <a:ext cx="3869874" cy="600179"/>
+          <a:off x="7339012" y="8605838"/>
+          <a:ext cx="3915594" cy="600179"/>
           <a:chOff x="8767763" y="5857875"/>
           <a:chExt cx="3801294" cy="600179"/>
         </a:xfrm>
@@ -2556,7 +3088,7 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>33337</xdr:colOff>
       <xdr:row>71</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2571,8 +3103,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3719513" y="10634663"/>
-          <a:ext cx="223837" cy="223837"/>
+          <a:off x="3733800" y="10634663"/>
+          <a:ext cx="233362" cy="204787"/>
         </a:xfrm>
         <a:prstGeom prst="mathPlus">
           <a:avLst/>
@@ -2612,13 +3144,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>123</xdr:row>
+      <xdr:row>174</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>135</xdr:row>
+      <xdr:row>186</xdr:row>
       <xdr:rowOff>152399</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2662,13 +3194,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>123</xdr:row>
+      <xdr:row>174</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>21058</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>187</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3014,21 +3546,21 @@
       <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.09765625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.7"/>
   <cols>
-    <col min="5" max="5" width="5.296875" customWidth="1"/>
-    <col min="6" max="6" width="7.296875" customWidth="1"/>
-    <col min="7" max="7" width="11.796875" customWidth="1"/>
+    <col min="5" max="5" width="5.3125" customWidth="1"/>
+    <col min="6" max="6" width="7.3125" customWidth="1"/>
+    <col min="7" max="7" width="11.8125" customWidth="1"/>
     <col min="8" max="8" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" s="1" customFormat="1" ht="32.4" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:8" s="1" customFormat="1" ht="32.25" x14ac:dyDescent="0.7">
       <c r="B1" s="3"/>
       <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E4" s="5" t="s">
         <v>3</v>
       </c>
@@ -3050,19 +3582,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFD89370-1DE1-4DF5-942C-CF8F59DF7864}">
-  <dimension ref="A1:W163"/>
+  <dimension ref="A1:W227"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B145" workbookViewId="0">
-      <selection activeCell="J165" sqref="J165"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.09765625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.7"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
     <col min="2" max="2" width="20" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3073,375 +3605,571 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B3" s="11"/>
       <c r="D3" s="10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B7" s="11"/>
       <c r="D7" s="10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="D9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="D10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B12" s="11"/>
       <c r="D12" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B14" s="13"/>
       <c r="C14" s="14"/>
       <c r="E14" s="12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="7:7" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="7:7" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="G18" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="5:7" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="5:7" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F40" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="42" spans="5:7" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="5:7" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="G42" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="43" spans="5:7" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="5:7" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="G43" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="5:7" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="5:7" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="G44" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="45" spans="5:7" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="5:7" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="G45" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="47" spans="5:7" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="5:7" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E47" s="15" t="s">
         <v>21</v>
       </c>
       <c r="F47" s="15"/>
     </row>
-    <row r="49" spans="5:7" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="5:7" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F49" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="50" spans="5:7" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="5:7" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="G50" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="52" spans="5:7" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="5:7" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E52" s="15" t="s">
         <v>34</v>
       </c>
       <c r="F52" s="15"/>
     </row>
-    <row r="54" spans="5:7" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="5:7" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F54" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="56" spans="5:7" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="5:7" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F56" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="69" spans="6:22" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="6:10" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F69" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="71" spans="6:22" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="6:10" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="H71" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="73" spans="6:22" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="I73" s="16" t="s">
+    <row r="74" spans="6:10" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="H74" s="16" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="76" spans="6:10" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="I76" s="17" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="78" spans="6:10" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="J78" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="80" spans="6:10" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="J80" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="82" spans="9:13" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="J82" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="84" spans="9:13" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="K84" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="86" spans="9:13" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="I86" s="17" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="88" spans="9:13" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="J88" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="89" spans="9:13" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="K89" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="91" spans="9:13" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="L91" s="16" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="93" spans="9:13" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="M93" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="94" spans="9:13" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="M94" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="95" spans="9:13" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="M95" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="97" spans="9:12" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="K97" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="99" spans="9:12" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="L99" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="101" spans="9:12" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="J101" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="103" spans="9:12" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="I103" s="16" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="105" spans="9:12" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="J105" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="107" spans="9:12" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="K107" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="109" spans="9:12" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="K109" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="111" spans="9:12" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="L111" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="113" spans="9:22" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="I113" s="16" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="114" spans="9:22" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="I114" s="16"/>
+    </row>
+    <row r="115" spans="9:22" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="I115" s="16"/>
+      <c r="J115" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="116" spans="9:22" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="I116" s="16"/>
+    </row>
+    <row r="117" spans="9:22" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="I117" s="16"/>
+      <c r="K117" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="118" spans="9:22" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="I118" s="16"/>
+    </row>
+    <row r="119" spans="9:22" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="K119" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="121" spans="9:22" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="K121" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="122" spans="9:22" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="L122" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="124" spans="9:22" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="I124" s="16" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="74" spans="6:22" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="I74" s="16"/>
-    </row>
-    <row r="75" spans="6:22" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="I75" t="s">
+    <row r="125" spans="9:22" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="I125" s="16"/>
+    </row>
+    <row r="126" spans="9:22" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="I126" t="s">
         <v>43</v>
       </c>
-      <c r="U75" t="s">
+      <c r="U126" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="76" spans="6:22" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="J76" t="s">
+    <row r="127" spans="9:22" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="J127" t="s">
         <v>45</v>
       </c>
-      <c r="V76" t="s">
+      <c r="V127" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="77" spans="6:22" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="I77" t="s">
+    <row r="128" spans="9:22" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="I128" t="s">
         <v>44</v>
       </c>
-      <c r="U77" t="s">
+      <c r="U128" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="78" spans="6:22" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="J78" t="s">
+    <row r="129" spans="5:22" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="J129" t="s">
         <v>46</v>
       </c>
-      <c r="V78" t="s">
+      <c r="V129" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="80" spans="6:22" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="I80" t="s">
+    <row r="131" spans="5:22" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="I131" t="s">
         <v>51</v>
       </c>
-      <c r="U80" t="s">
+      <c r="U131" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="81" spans="5:22" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="J81" t="s">
+    <row r="132" spans="5:22" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="J132" t="s">
         <v>54</v>
       </c>
-      <c r="V81" t="s">
+      <c r="V132" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="82" spans="5:22" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="I82" t="s">
+    <row r="133" spans="5:22" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="I133" t="s">
         <v>50</v>
       </c>
-      <c r="U82" t="s">
+      <c r="U133" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="83" spans="5:22" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="J83" t="s">
+    <row r="134" spans="5:22" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="J134" t="s">
         <v>55</v>
       </c>
-      <c r="V83" t="s">
+      <c r="V134" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="85" spans="5:22" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G85" t="s">
+    <row r="136" spans="5:22" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="G136" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="87" spans="5:22" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G87" t="s">
+    <row r="138" spans="5:22" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="G138" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="93" spans="5:22" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="E93" s="15" t="s">
+    <row r="144" spans="5:22" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="E144" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="F93" s="15"/>
-    </row>
-    <row r="95" spans="5:22" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F95" t="s">
+      <c r="F144" s="15"/>
+    </row>
+    <row r="146" spans="5:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="F146" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="96" spans="5:22" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G96" t="s">
+    <row r="147" spans="5:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="G147" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="98" spans="5:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G98" t="s">
+    <row r="149" spans="5:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="G149" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="100" spans="5:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H100" t="s">
+    <row r="151" spans="5:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="H151" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="102" spans="5:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G102" t="s">
+    <row r="153" spans="5:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="G153" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="107" spans="5:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="E107" s="15" t="s">
+    <row r="154" spans="5:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="H154" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="158" spans="5:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="E158" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="F107" s="15"/>
-    </row>
-    <row r="109" spans="5:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F109" t="s">
+      <c r="F158" s="15"/>
+    </row>
+    <row r="160" spans="5:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="F160" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="111" spans="5:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G111" t="s">
+    <row r="162" spans="2:9" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="G162" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="113" spans="2:9" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G113" t="s">
+    <row r="164" spans="2:9" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="G164" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="114" spans="2:9" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H114" t="s">
+    <row r="165" spans="2:9" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="H165" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="116" spans="2:9" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="I116" t="s">
+    <row r="167" spans="2:9" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="I167" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="118" spans="2:9" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B118" s="13"/>
-      <c r="C118" s="14"/>
-      <c r="E118" s="12" t="s">
+    <row r="169" spans="2:9" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B169" s="13"/>
+      <c r="C169" s="14"/>
+      <c r="E169" s="12" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="120" spans="2:9" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="E120" t="s">
+    <row r="171" spans="2:9" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="E171" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="122" spans="2:9" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="E122" t="s">
+    <row r="173" spans="2:9" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="E173" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="138" spans="6:23" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G138" t="s">
+    <row r="189" spans="6:23" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="G189" t="s">
         <v>64</v>
       </c>
-      <c r="J138" t="s">
+      <c r="J189" t="s">
         <v>65</v>
       </c>
-      <c r="M138" t="s">
+      <c r="M189" t="s">
         <v>66</v>
       </c>
-      <c r="Q138" t="s">
+      <c r="Q189" t="s">
         <v>67</v>
       </c>
-      <c r="T138" t="s">
+      <c r="T189" t="s">
         <v>68</v>
       </c>
-      <c r="W138" t="s">
+      <c r="W189" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="141" spans="6:23" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F141" t="s">
+    <row r="192" spans="6:23" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="F192" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="143" spans="6:23" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F143" s="15" t="s">
+    <row r="194" spans="6:13" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="F194" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="G143" s="15"/>
-      <c r="H143" s="15"/>
-      <c r="I143" s="15"/>
-      <c r="J143" s="15"/>
-      <c r="K143" s="15"/>
-    </row>
-    <row r="145" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G145" t="s">
+      <c r="G194" s="15"/>
+      <c r="H194" s="15"/>
+      <c r="I194" s="15"/>
+      <c r="J194" s="15"/>
+      <c r="K194" s="15"/>
+    </row>
+    <row r="196" spans="6:13" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="G196" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="147" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H147" t="s">
+    <row r="198" spans="6:13" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="H198" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="148" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H148" t="s">
+      <c r="M198" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="199" spans="6:13" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="H199" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="149" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H149" t="s">
+      <c r="M199" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="200" spans="6:13" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="H200" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="152" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G152" s="15" t="s">
+      <c r="M200" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="203" spans="6:13" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="G203" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="H152" s="15"/>
-    </row>
-    <row r="154" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H154" t="s">
+      <c r="H203" s="15"/>
+    </row>
+    <row r="205" spans="6:13" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="H205" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="156" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="I156" t="s">
+    <row r="207" spans="6:13" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="I207" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="158" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="I158" t="s">
+    <row r="209" spans="7:11" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="I209" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="159" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="I159" t="s">
+    <row r="210" spans="7:11" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="I210" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="161" spans="9:11" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="I161" s="16" t="s">
+    <row r="212" spans="7:11" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="I212" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="J161" s="16"/>
-      <c r="K161" s="16"/>
-    </row>
-    <row r="163" spans="9:11" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="J163" t="s">
+      <c r="J212" s="16"/>
+      <c r="K212" s="16"/>
+    </row>
+    <row r="214" spans="7:11" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="J214" t="s">
         <v>82</v>
+      </c>
+    </row>
+    <row r="216" spans="7:11" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="J216" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="217" spans="7:11" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="J217" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="219" spans="7:11" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="G219" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="H219" s="15"/>
+    </row>
+    <row r="221" spans="7:11" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="H221" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="223" spans="7:11" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="I223" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="225" spans="9:10" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="I225" s="16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="227" spans="9:10" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="J227" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/Document/300_DUYDキャラクター仕様.xlsx
+++ b/Document/300_DUYDキャラクター仕様.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\新しいフォルダー (2)\Document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\新しいフォルダー\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32E429CD-31A6-47E2-A4F1-C65D77C546AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F50CF809-3673-45C0-8FE1-45D210F846D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{A7C1605A-4F8D-422A-A50A-47C3F46D6375}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{A7C1605A-4F8D-422A-A50A-47C3F46D6375}"/>
   </bookViews>
   <sheets>
     <sheet name="更新履歴" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="139">
   <si>
     <t>更新履歴</t>
     <rPh sb="0" eb="4">
@@ -406,16 +406,6 @@
     </rPh>
     <rPh sb="4" eb="8">
       <t>ケイサンホウホウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>HP：30ポイント以上の時</t>
-    <rPh sb="9" eb="11">
-      <t>イジョウ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>トキ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -522,21 +512,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>HP：50ポイント以上の時</t>
-    <rPh sb="9" eb="11">
-      <t>イジョウ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>トキ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>H＝Hp×1.05</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>H＝Hp×1.025</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -558,19 +534,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>筋力：50ポイント以上の時</t>
-    <rPh sb="0" eb="2">
-      <t>キンリョク</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>イジョウ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>トキ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>筋力：50ポイント以下の時</t>
     <rPh sb="0" eb="2">
       <t>キンリョク</t>
@@ -584,16 +547,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>O2タンク：50ポイント以上の時</t>
-    <rPh sb="12" eb="14">
-      <t>イジョウ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>トキ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>つるはし：50ポイント以下の時</t>
     <rPh sb="11" eb="13">
       <t>イカ</t>
@@ -902,10 +855,6 @@
     <rPh sb="33" eb="35">
       <t>ゲンショウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>S＝１</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1342,6 +1291,278 @@
     </rPh>
     <rPh sb="10" eb="12">
       <t>イッテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>S＝0.7ｎ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Sは反映される数値</t>
+    <rPh sb="2" eb="4">
+      <t>ハンエイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>スウチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>H＝Hp×1.07</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>HP：51ポイント以上の時</t>
+    <rPh sb="9" eb="11">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>トキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>O2タンク：51ポイント以上の時</t>
+    <rPh sb="12" eb="14">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>トキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>筋力：51ポイント以上の時</t>
+    <rPh sb="0" eb="2">
+      <t>キンリョク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>トキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>つるはし：51ポイント以上の時</t>
+    <rPh sb="11" eb="13">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>トキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>AGR</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>この敵は以下のことが出来ます</t>
+    <rPh sb="2" eb="3">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>デキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プレイヤーが一定の範囲に入ったらプレイヤーに接近します</t>
+    <rPh sb="6" eb="8">
+      <t>イッテイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>セッキン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>範囲は半径２０ピクセルとします</t>
+    <rPh sb="0" eb="2">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ハンケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>範囲外にプレイヤーがいるときは停止します</t>
+    <rPh sb="0" eb="2">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ガイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>テイシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>攻撃方法は体当たりです</t>
+    <rPh sb="0" eb="4">
+      <t>コウゲキホウホウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>タイア</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>一度プレイヤーに体当たりしたら少し後ろに下がります</t>
+    <rPh sb="0" eb="2">
+      <t>イチド</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>タイア</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>スコ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ウシ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>サ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>敵キャラの移動速度です</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="5" eb="9">
+      <t>イドウソクド</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Aは反映される数値</t>
+    <rPh sb="2" eb="4">
+      <t>ハンエイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>スウチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>A＝１×0.2n</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>キャラクターがダメージを受けたとき</t>
+    <rPh sb="12" eb="13">
+      <t>ウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>１秒間キャラを白く点滅させてください</t>
+    <rPh sb="1" eb="3">
+      <t>ビョウカン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>シロ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>テンメツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>この間はダメージを受けません（無敵時間）</t>
+    <rPh sb="2" eb="3">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="15" eb="19">
+      <t>ムテキジカン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>敵が攻撃を受けたとき</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>１秒間敵を白く点滅させてください</t>
+    <rPh sb="1" eb="3">
+      <t>ビョウカン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>シロ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>テンメツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>攻撃を受けた場所に１秒間とどまります（無敵ではない）</t>
+    <rPh sb="0" eb="2">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>バショ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ビョウカン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ムテキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>以上</t>
+    <rPh sb="0" eb="2">
+      <t>イジョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>田中</t>
+    <rPh sb="0" eb="2">
+      <t>タナカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>新規作成</t>
+    <rPh sb="0" eb="4">
+      <t>シンキサクセイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1493,7 +1714,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1546,6 +1767,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3144,13 +3374,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>174</xdr:row>
+      <xdr:row>182</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>186</xdr:row>
+      <xdr:row>194</xdr:row>
       <xdr:rowOff>152399</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3194,13 +3424,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>174</xdr:row>
+      <xdr:row>182</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>21058</xdr:colOff>
-      <xdr:row>187</xdr:row>
+      <xdr:row>195</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3540,18 +3770,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E2D295A-9295-46AC-88E4-F7ADF9D99499}">
-  <dimension ref="B1:H4"/>
+  <dimension ref="B1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.7"/>
   <cols>
-    <col min="5" max="5" width="5.3125" customWidth="1"/>
+    <col min="5" max="5" width="16.1875" customWidth="1"/>
     <col min="6" max="6" width="7.3125" customWidth="1"/>
-    <col min="7" max="7" width="11.8125" customWidth="1"/>
-    <col min="8" max="8" width="10" customWidth="1"/>
+    <col min="7" max="7" width="21.5" customWidth="1"/>
+    <col min="8" max="8" width="15.0625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" s="1" customFormat="1" ht="32.25" x14ac:dyDescent="0.7">
@@ -3574,17 +3804,32 @@
         <v>6</v>
       </c>
     </row>
+    <row r="5" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="E5" s="20">
+        <v>46066</v>
+      </c>
+      <c r="F5" t="s">
+        <v>137</v>
+      </c>
+      <c r="G5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" t="s">
+        <v>138</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFD89370-1DE1-4DF5-942C-CF8F59DF7864}">
-  <dimension ref="A1:W227"/>
+  <dimension ref="A1:W278"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -3724,112 +3969,112 @@
     </row>
     <row r="74" spans="6:10" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="H74" s="16" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="76" spans="6:10" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="I76" s="17" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="78" spans="6:10" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="J78" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="80" spans="6:10" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="J80" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="82" spans="9:13" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="J82" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="84" spans="9:13" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="K84" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="86" spans="9:13" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="I86" s="17" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="88" spans="9:13" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="J88" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="89" spans="9:13" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="K89" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="91" spans="9:13" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="L91" s="16" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="93" spans="9:13" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="M93" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="94" spans="9:13" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="M94" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="95" spans="9:13" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="M95" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="97" spans="9:12" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="K97" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="99" spans="9:12" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="L99" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="101" spans="9:12" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="J101" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="103" spans="9:12" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="I103" s="16" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="105" spans="9:12" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="J105" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="107" spans="9:12" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="K107" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="109" spans="9:12" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="K109" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="111" spans="9:12" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="L111" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="113" spans="9:22" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="I113" s="16" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="114" spans="9:22" ht="12" customHeight="1" x14ac:dyDescent="0.7">
@@ -3838,7 +4083,7 @@
     <row r="115" spans="9:22" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="I115" s="16"/>
       <c r="J115" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="116" spans="9:22" ht="12" customHeight="1" x14ac:dyDescent="0.7">
@@ -3847,7 +4092,7 @@
     <row r="117" spans="9:22" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="I117" s="16"/>
       <c r="K117" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="118" spans="9:22" ht="12" customHeight="1" x14ac:dyDescent="0.7">
@@ -3855,17 +4100,17 @@
     </row>
     <row r="119" spans="9:22" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="K119" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="121" spans="9:22" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="K121" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="122" spans="9:22" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="L122" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="124" spans="9:22" ht="12" customHeight="1" x14ac:dyDescent="0.7">
@@ -3878,76 +4123,76 @@
     </row>
     <row r="126" spans="9:22" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="I126" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="U126" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="127" spans="9:22" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="J127" t="s">
+        <v>115</v>
+      </c>
+      <c r="V127" t="s">
         <v>45</v>
-      </c>
-      <c r="V127" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="128" spans="9:22" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="I128" t="s">
-        <v>44</v>
+        <v>116</v>
       </c>
       <c r="U128" t="s">
-        <v>52</v>
+        <v>117</v>
       </c>
     </row>
     <row r="129" spans="5:22" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="J129" t="s">
+        <v>43</v>
+      </c>
+      <c r="V129" t="s">
         <v>46</v>
-      </c>
-      <c r="V129" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="131" spans="5:22" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="I131" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="U131" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="132" spans="5:22" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="J132" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="V132" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="133" spans="5:22" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="I133" t="s">
-        <v>50</v>
+        <v>118</v>
       </c>
       <c r="U133" t="s">
-        <v>40</v>
+        <v>119</v>
       </c>
     </row>
     <row r="134" spans="5:22" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="J134" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="V134" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="136" spans="5:22" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="G136" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="138" spans="5:22" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="G138" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="144" spans="5:22" ht="12" customHeight="1" x14ac:dyDescent="0.7">
@@ -3973,7 +4218,7 @@
     </row>
     <row r="151" spans="5:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="H151" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="153" spans="5:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
@@ -3983,7 +4228,7 @@
     </row>
     <row r="154" spans="5:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="H154" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="158" spans="5:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
@@ -3997,179 +4242,301 @@
         <v>30</v>
       </c>
     </row>
-    <row r="162" spans="2:9" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="162" spans="5:9" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="G162" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="164" spans="2:9" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="164" spans="5:9" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="G164" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="165" spans="2:9" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="165" spans="5:9" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="H165" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="167" spans="2:9" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="167" spans="5:9" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="I167" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="170" spans="5:9" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="E170" s="16" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="172" spans="5:9" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="F172" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="174" spans="5:9" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="G174" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="177" spans="2:5" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B177" s="13"/>
+      <c r="C177" s="14"/>
+      <c r="E177" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="179" spans="2:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="E179" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="181" spans="2:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="E181" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="197" spans="6:23" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="G197" t="s">
+        <v>59</v>
+      </c>
+      <c r="J197" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="169" spans="2:9" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B169" s="13"/>
-      <c r="C169" s="14"/>
-      <c r="E169" s="12" t="s">
+      <c r="M197" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="171" spans="2:9" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="E171" t="s">
+      <c r="Q197" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="173" spans="2:9" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="E173" t="s">
+      <c r="T197" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="189" spans="6:23" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="G189" t="s">
+      <c r="W197" t="s">
         <v>64</v>
       </c>
-      <c r="J189" t="s">
+    </row>
+    <row r="200" spans="6:23" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="F200" t="s">
         <v>65</v>
       </c>
-      <c r="M189" t="s">
+    </row>
+    <row r="202" spans="6:23" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="G202" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="204" spans="6:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="H204" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="205" spans="6:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.7"/>
+    <row r="206" spans="6:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="I206" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="207" spans="6:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.7"/>
+    <row r="208" spans="6:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="J208" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="209" spans="6:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.7"/>
+    <row r="210" spans="6:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="J210" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="211" spans="6:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.7"/>
+    <row r="212" spans="6:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.7"/>
+    <row r="213" spans="6:11" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="H213" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="215" spans="6:11" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="I215" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="217" spans="6:11" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="J217" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="221" spans="6:11" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="F221" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="Q189" t="s">
+      <c r="G221" s="15"/>
+      <c r="H221" s="15"/>
+      <c r="I221" s="15"/>
+      <c r="J221" s="15"/>
+      <c r="K221" s="15"/>
+    </row>
+    <row r="223" spans="6:11" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="G223" t="s">
         <v>67</v>
       </c>
-      <c r="T189" t="s">
+    </row>
+    <row r="225" spans="7:13" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="H225" t="s">
         <v>68</v>
       </c>
-      <c r="W189" t="s">
+      <c r="M225" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="226" spans="7:13" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="H226" t="s">
+        <v>70</v>
+      </c>
+      <c r="M226" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="227" spans="7:13" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="H227" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="192" spans="6:23" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="F192" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="194" spans="6:13" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="F194" s="15" t="s">
+      <c r="M227" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="230" spans="7:13" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="G230" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="G194" s="15"/>
-      <c r="H194" s="15"/>
-      <c r="I194" s="15"/>
-      <c r="J194" s="15"/>
-      <c r="K194" s="15"/>
-    </row>
-    <row r="196" spans="6:13" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="G196" t="s">
+      <c r="H230" s="15"/>
+    </row>
+    <row r="232" spans="7:13" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="H232" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="198" spans="6:13" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="H198" t="s">
+    <row r="234" spans="7:13" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="I234" t="s">
         <v>73</v>
       </c>
-      <c r="M198" t="s">
+    </row>
+    <row r="236" spans="7:13" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="I236" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="237" spans="7:13" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="I237" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="239" spans="7:13" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="I239" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="J239" s="16"/>
+      <c r="K239" s="16"/>
+    </row>
+    <row r="241" spans="7:10" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="J241" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="243" spans="7:10" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="J243" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="244" spans="7:10" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="J244" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="246" spans="7:10" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="G246" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="H246" s="15"/>
+    </row>
+    <row r="248" spans="7:10" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="H248" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="199" spans="6:13" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="H199" t="s">
-        <v>75</v>
-      </c>
-      <c r="M199" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="200" spans="6:13" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="H200" t="s">
-        <v>74</v>
-      </c>
-      <c r="M200" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="203" spans="6:13" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="G203" s="15" t="s">
+    <row r="250" spans="7:10" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="I250" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="252" spans="7:10" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="I252" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="H203" s="15"/>
-    </row>
-    <row r="205" spans="6:13" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="H205" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="207" spans="6:13" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="I207" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="209" spans="7:11" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="I209" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="210" spans="7:11" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="I210" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="212" spans="7:11" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="I212" s="16" t="s">
+    </row>
+    <row r="254" spans="7:10" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="J254" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="256" spans="7:10" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="J256" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="257" spans="6:10" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="J257" t="s">
         <v>81</v>
       </c>
-      <c r="J212" s="16"/>
-      <c r="K212" s="16"/>
-    </row>
-    <row r="214" spans="7:11" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="J214" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="216" spans="7:11" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="J216" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="217" spans="7:11" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="J217" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="219" spans="7:11" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="G219" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="H219" s="15"/>
-    </row>
-    <row r="221" spans="7:11" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="H221" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="223" spans="7:11" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="I223" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="225" spans="9:10" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="I225" s="16" t="s">
+    </row>
+    <row r="259" spans="6:10" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="G259" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="H259" s="15"/>
+    </row>
+    <row r="261" spans="6:10" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="H261" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="263" spans="6:10" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="I263" s="16" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="265" spans="6:10" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="J265" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="267" spans="6:10" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="J267" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="268" spans="6:10" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="J268" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="227" spans="9:10" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="J227" t="s">
-        <v>91</v>
+    <row r="271" spans="6:10" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="F271" s="16" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="273" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="G273" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="275" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="H275" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="278" spans="2:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B278" s="18"/>
+      <c r="D278" s="19" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>

--- a/Document/300_DUYDキャラクター仕様.xlsx
+++ b/Document/300_DUYDキャラクター仕様.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\新しいフォルダー\Document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\新しいフォルダー (2)\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F50CF809-3673-45C0-8FE1-45D210F846D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B6B5183-13ED-497F-8C2A-348C4560661C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{A7C1605A-4F8D-422A-A50A-47C3F46D6375}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{A7C1605A-4F8D-422A-A50A-47C3F46D6375}"/>
   </bookViews>
   <sheets>
     <sheet name="更新履歴" sheetId="2" r:id="rId1"/>
@@ -1873,8 +1873,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3695700" y="8591550"/>
-          <a:ext cx="3395663" cy="1671638"/>
+          <a:off x="3689985" y="8591550"/>
+          <a:ext cx="3355658" cy="1671638"/>
           <a:chOff x="3681413" y="8677275"/>
           <a:chExt cx="3295650" cy="1671638"/>
         </a:xfrm>
@@ -2507,8 +2507,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7339012" y="8605838"/>
-          <a:ext cx="3915594" cy="600179"/>
+          <a:off x="7289482" y="8605838"/>
+          <a:ext cx="3869874" cy="600179"/>
           <a:chOff x="8767763" y="5857875"/>
           <a:chExt cx="3801294" cy="600179"/>
         </a:xfrm>
@@ -3772,25 +3772,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E2D295A-9295-46AC-88E4-F7ADF9D99499}">
   <dimension ref="B1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultColWidth="2.09765625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="5" max="5" width="16.1875" customWidth="1"/>
-    <col min="6" max="6" width="7.3125" customWidth="1"/>
+    <col min="5" max="5" width="16.19921875" customWidth="1"/>
+    <col min="6" max="6" width="7.296875" customWidth="1"/>
     <col min="7" max="7" width="21.5" customWidth="1"/>
-    <col min="8" max="8" width="15.0625" customWidth="1"/>
+    <col min="8" max="8" width="15.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" s="1" customFormat="1" ht="32.25" x14ac:dyDescent="0.7">
+    <row r="1" spans="2:8" s="1" customFormat="1" ht="32.4" x14ac:dyDescent="0.45">
       <c r="B1" s="3"/>
       <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="4" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E4" s="5" t="s">
         <v>3</v>
       </c>
@@ -3804,7 +3804,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="5" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E5" s="20">
         <v>46066</v>
       </c>
@@ -3829,17 +3829,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFD89370-1DE1-4DF5-942C-CF8F59DF7864}">
   <dimension ref="A1:W278"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="B181" workbookViewId="0">
+      <selection activeCell="AI195" sqref="AI195"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultColWidth="2.09765625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
     <col min="2" max="2" width="20" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:6" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3850,278 +3850,278 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="3" spans="1:6" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B3" s="11"/>
       <c r="D3" s="10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="5" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="7" spans="1:6" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="11"/>
       <c r="D7" s="10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="9" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="10" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="12" spans="1:6" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="11"/>
       <c r="D12" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="14" spans="1:6" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B14" s="13"/>
       <c r="C14" s="14"/>
       <c r="E14" s="12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="16" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="7:7" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="18" spans="7:7" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G18" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="5:7" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="40" spans="5:7" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F40" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="42" spans="5:7" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="42" spans="5:7" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G42" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="43" spans="5:7" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="43" spans="5:7" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G43" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="5:7" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="44" spans="5:7" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G44" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="45" spans="5:7" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="45" spans="5:7" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G45" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="47" spans="5:7" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="47" spans="5:7" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E47" s="15" t="s">
         <v>21</v>
       </c>
       <c r="F47" s="15"/>
     </row>
-    <row r="49" spans="5:7" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="49" spans="5:7" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F49" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="50" spans="5:7" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="50" spans="5:7" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G50" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="52" spans="5:7" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="52" spans="5:7" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E52" s="15" t="s">
         <v>34</v>
       </c>
       <c r="F52" s="15"/>
     </row>
-    <row r="54" spans="5:7" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="54" spans="5:7" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F54" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="56" spans="5:7" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="56" spans="5:7" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F56" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="69" spans="6:10" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="69" spans="6:10" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F69" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="71" spans="6:10" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="71" spans="6:10" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H71" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="74" spans="6:10" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="74" spans="6:10" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H74" s="16" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="76" spans="6:10" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="76" spans="6:10" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I76" s="17" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="78" spans="6:10" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="78" spans="6:10" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="J78" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="80" spans="6:10" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="80" spans="6:10" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="J80" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="82" spans="9:13" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="82" spans="9:13" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="J82" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="84" spans="9:13" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="84" spans="9:13" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="K84" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="86" spans="9:13" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="86" spans="9:13" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I86" s="17" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="88" spans="9:13" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="88" spans="9:13" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="J88" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="89" spans="9:13" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="89" spans="9:13" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="K89" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="91" spans="9:13" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="91" spans="9:13" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="L91" s="16" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="93" spans="9:13" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="93" spans="9:13" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="M93" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="94" spans="9:13" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="94" spans="9:13" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="M94" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="95" spans="9:13" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="95" spans="9:13" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="M95" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="97" spans="9:12" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="97" spans="9:12" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="K97" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="99" spans="9:12" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="99" spans="9:12" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="L99" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="101" spans="9:12" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="101" spans="9:12" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="J101" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="103" spans="9:12" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="103" spans="9:12" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I103" s="16" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="105" spans="9:12" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="105" spans="9:12" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="J105" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="107" spans="9:12" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="107" spans="9:12" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="K107" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="109" spans="9:12" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="109" spans="9:12" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="K109" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="111" spans="9:12" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="111" spans="9:12" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="L111" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="113" spans="9:22" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="113" spans="9:22" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I113" s="16" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="114" spans="9:22" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="114" spans="9:22" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I114" s="16"/>
     </row>
-    <row r="115" spans="9:22" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="115" spans="9:22" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I115" s="16"/>
       <c r="J115" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="116" spans="9:22" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="116" spans="9:22" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I116" s="16"/>
     </row>
-    <row r="117" spans="9:22" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="117" spans="9:22" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I117" s="16"/>
       <c r="K117" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="118" spans="9:22" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="118" spans="9:22" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I118" s="16"/>
     </row>
-    <row r="119" spans="9:22" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="119" spans="9:22" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="K119" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="121" spans="9:22" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="121" spans="9:22" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="K121" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="122" spans="9:22" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="122" spans="9:22" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="L122" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="124" spans="9:22" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="124" spans="9:22" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I124" s="16" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="125" spans="9:22" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="125" spans="9:22" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I125" s="16"/>
     </row>
-    <row r="126" spans="9:22" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="126" spans="9:22" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I126" t="s">
         <v>42</v>
       </c>
@@ -4129,7 +4129,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="127" spans="9:22" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="127" spans="9:22" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="J127" t="s">
         <v>115</v>
       </c>
@@ -4137,7 +4137,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="128" spans="9:22" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="128" spans="9:22" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I128" t="s">
         <v>116</v>
       </c>
@@ -4145,7 +4145,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="129" spans="5:22" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="129" spans="5:22" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="J129" t="s">
         <v>43</v>
       </c>
@@ -4153,7 +4153,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="131" spans="5:22" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="131" spans="5:22" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I131" t="s">
         <v>47</v>
       </c>
@@ -4161,7 +4161,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="132" spans="5:22" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="132" spans="5:22" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="J132" t="s">
         <v>49</v>
       </c>
@@ -4169,7 +4169,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="133" spans="5:22" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="133" spans="5:22" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I133" t="s">
         <v>118</v>
       </c>
@@ -4177,7 +4177,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="134" spans="5:22" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="134" spans="5:22" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="J134" t="s">
         <v>50</v>
       </c>
@@ -4185,116 +4185,116 @@
         <v>52</v>
       </c>
     </row>
-    <row r="136" spans="5:22" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="136" spans="5:22" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G136" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="138" spans="5:22" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="138" spans="5:22" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G138" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="144" spans="5:22" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="144" spans="5:22" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E144" s="15" t="s">
         <v>24</v>
       </c>
       <c r="F144" s="15"/>
     </row>
-    <row r="146" spans="5:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="146" spans="5:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F146" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="147" spans="5:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="147" spans="5:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G147" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="149" spans="5:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="149" spans="5:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G149" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="151" spans="5:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="151" spans="5:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H151" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="153" spans="5:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="153" spans="5:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G153" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="154" spans="5:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="154" spans="5:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H154" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="158" spans="5:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="158" spans="5:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E158" s="15" t="s">
         <v>29</v>
       </c>
       <c r="F158" s="15"/>
     </row>
-    <row r="160" spans="5:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="160" spans="5:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F160" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="162" spans="5:9" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="162" spans="5:9" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G162" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="164" spans="5:9" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="164" spans="5:9" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G164" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="165" spans="5:9" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="165" spans="5:9" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H165" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="167" spans="5:9" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="167" spans="5:9" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I167" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="170" spans="5:9" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="170" spans="5:9" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E170" s="16" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="172" spans="5:9" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="172" spans="5:9" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F172" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="174" spans="5:9" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="174" spans="5:9" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G174" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="177" spans="2:5" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="177" spans="2:5" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B177" s="13"/>
       <c r="C177" s="14"/>
       <c r="E177" s="12" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="179" spans="2:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="179" spans="2:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E179" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="181" spans="2:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="181" spans="2:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E181" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="197" spans="6:23" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="197" spans="6:23" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G197" t="s">
         <v>59</v>
       </c>
@@ -4314,57 +4314,57 @@
         <v>64</v>
       </c>
     </row>
-    <row r="200" spans="6:23" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="200" spans="6:23" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F200" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="202" spans="6:23" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="202" spans="6:23" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G202" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="204" spans="6:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="204" spans="6:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H204" s="16" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="205" spans="6:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.7"/>
-    <row r="206" spans="6:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="205" spans="6:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="206" spans="6:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I206" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="207" spans="6:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.7"/>
-    <row r="208" spans="6:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="207" spans="6:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="208" spans="6:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="J208" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="209" spans="6:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.7"/>
-    <row r="210" spans="6:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="209" spans="6:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="210" spans="6:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="J210" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="211" spans="6:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.7"/>
-    <row r="212" spans="6:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.7"/>
-    <row r="213" spans="6:11" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="211" spans="6:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="212" spans="6:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="213" spans="6:11" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H213" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="215" spans="6:11" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="215" spans="6:11" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I215" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="217" spans="6:11" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="217" spans="6:11" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="J217" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="221" spans="6:11" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="221" spans="6:11" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F221" s="15" t="s">
         <v>66</v>
       </c>
@@ -4374,12 +4374,12 @@
       <c r="J221" s="15"/>
       <c r="K221" s="15"/>
     </row>
-    <row r="223" spans="6:11" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="223" spans="6:11" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G223" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="225" spans="7:13" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="225" spans="7:13" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H225" t="s">
         <v>68</v>
       </c>
@@ -4387,7 +4387,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="226" spans="7:13" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="226" spans="7:13" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H226" t="s">
         <v>70</v>
       </c>
@@ -4395,7 +4395,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="227" spans="7:13" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="227" spans="7:13" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H227" t="s">
         <v>69</v>
       </c>
@@ -4403,137 +4403,137 @@
         <v>79</v>
       </c>
     </row>
-    <row r="230" spans="7:13" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="230" spans="7:13" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G230" s="15" t="s">
         <v>71</v>
       </c>
       <c r="H230" s="15"/>
     </row>
-    <row r="232" spans="7:13" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="232" spans="7:13" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H232" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="234" spans="7:13" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="234" spans="7:13" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I234" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="236" spans="7:13" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="236" spans="7:13" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I236" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="237" spans="7:13" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="237" spans="7:13" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I237" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="239" spans="7:13" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="239" spans="7:13" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I239" s="16" t="s">
         <v>76</v>
       </c>
       <c r="J239" s="16"/>
       <c r="K239" s="16"/>
     </row>
-    <row r="241" spans="7:10" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="241" spans="7:10" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="J241" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="243" spans="7:10" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="243" spans="7:10" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="J243" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="244" spans="7:10" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="244" spans="7:10" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="J244" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="246" spans="7:10" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="246" spans="7:10" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G246" s="15" t="s">
         <v>82</v>
       </c>
       <c r="H246" s="15"/>
     </row>
-    <row r="248" spans="7:10" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="248" spans="7:10" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H248" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="250" spans="7:10" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="250" spans="7:10" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I250" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="252" spans="7:10" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="252" spans="7:10" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I252" s="16" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="254" spans="7:10" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="254" spans="7:10" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="J254" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="256" spans="7:10" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="256" spans="7:10" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="J256" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="257" spans="6:10" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="257" spans="6:10" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="J257" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="259" spans="6:10" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="259" spans="6:10" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G259" s="15" t="s">
         <v>120</v>
       </c>
       <c r="H259" s="15"/>
     </row>
-    <row r="261" spans="6:10" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="261" spans="6:10" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H261" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="263" spans="6:10" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="263" spans="6:10" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I263" s="16" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="265" spans="6:10" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="265" spans="6:10" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="J265" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="267" spans="6:10" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="267" spans="6:10" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="J267" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="268" spans="6:10" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="268" spans="6:10" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="J268" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="271" spans="6:10" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="271" spans="6:10" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F271" s="16" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="273" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="273" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G273" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="275" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="275" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H275" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="278" spans="2:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="278" spans="2:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B278" s="18"/>
       <c r="D278" s="19" t="s">
         <v>136</v>

--- a/Document/300_DUYDキャラクター仕様.xlsx
+++ b/Document/300_DUYDキャラクター仕様.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\新しいフォルダー (2)\Document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\新しいフォルダー\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B6B5183-13ED-497F-8C2A-348C4560661C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10AB9B4D-31B7-4503-8FD2-8538F66BF526}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{A7C1605A-4F8D-422A-A50A-47C3F46D6375}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{A7C1605A-4F8D-422A-A50A-47C3F46D6375}"/>
   </bookViews>
   <sheets>
     <sheet name="更新履歴" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="144">
   <si>
     <t>更新履歴</t>
     <rPh sb="0" eb="4">
@@ -1563,6 +1563,71 @@
     <t>新規作成</t>
     <rPh sb="0" eb="4">
       <t>シンキサクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>仕様追加</t>
+    <rPh sb="0" eb="4">
+      <t>シヨウツイカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>また筋力ステータス（Sp）が２上がるごとに石の最大所持数が１増えます</t>
+    <rPh sb="2" eb="4">
+      <t>キンリョク</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>イシ</t>
+    </rPh>
+    <rPh sb="23" eb="28">
+      <t>サイダイショジスウ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>フ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>持っている石がなくなったら攻撃できません</t>
+    <rPh sb="0" eb="1">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>イシ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>岩を破壊すると補充できます</t>
+    <rPh sb="0" eb="1">
+      <t>イワ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ハカイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ホジュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>攻撃に関する仕様追加</t>
+    <rPh sb="0" eb="2">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="6" eb="10">
+      <t>シヨウツイカ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1873,8 +1938,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3689985" y="8591550"/>
-          <a:ext cx="3355658" cy="1671638"/>
+          <a:off x="3695700" y="8591550"/>
+          <a:ext cx="3395663" cy="1671638"/>
           <a:chOff x="3681413" y="8677275"/>
           <a:chExt cx="3295650" cy="1671638"/>
         </a:xfrm>
@@ -2507,8 +2572,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7289482" y="8605838"/>
-          <a:ext cx="3869874" cy="600179"/>
+          <a:off x="7339012" y="8605838"/>
+          <a:ext cx="3915594" cy="600179"/>
           <a:chOff x="8767763" y="5857875"/>
           <a:chExt cx="3801294" cy="600179"/>
         </a:xfrm>
@@ -3374,13 +3439,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>182</xdr:row>
+      <xdr:row>185</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>194</xdr:row>
+      <xdr:row>197</xdr:row>
       <xdr:rowOff>152399</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3424,13 +3489,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>182</xdr:row>
+      <xdr:row>185</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>21058</xdr:colOff>
-      <xdr:row>195</xdr:row>
+      <xdr:row>198</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3770,27 +3835,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E2D295A-9295-46AC-88E4-F7ADF9D99499}">
-  <dimension ref="B1:H5"/>
+  <dimension ref="B1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.09765625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.7"/>
   <cols>
-    <col min="5" max="5" width="16.19921875" customWidth="1"/>
-    <col min="6" max="6" width="7.296875" customWidth="1"/>
+    <col min="5" max="5" width="16.1875" customWidth="1"/>
+    <col min="6" max="6" width="7.3125" customWidth="1"/>
     <col min="7" max="7" width="21.5" customWidth="1"/>
-    <col min="8" max="8" width="15.09765625" customWidth="1"/>
+    <col min="8" max="8" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" s="1" customFormat="1" ht="32.4" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:8" s="1" customFormat="1" ht="32.25" x14ac:dyDescent="0.7">
       <c r="B1" s="3"/>
       <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E4" s="5" t="s">
         <v>3</v>
       </c>
@@ -3804,7 +3869,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E5" s="20">
         <v>46066</v>
       </c>
@@ -3816,6 +3881,20 @@
       </c>
       <c r="H5" t="s">
         <v>138</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="E6" s="20">
+        <v>46073</v>
+      </c>
+      <c r="F6" t="s">
+        <v>137</v>
+      </c>
+      <c r="G6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -3827,19 +3906,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFD89370-1DE1-4DF5-942C-CF8F59DF7864}">
-  <dimension ref="A1:W278"/>
+  <dimension ref="A1:W281"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B181" workbookViewId="0">
-      <selection activeCell="AI195" sqref="AI195"/>
+    <sheetView topLeftCell="A145" workbookViewId="0">
+      <selection activeCell="A171" sqref="A171"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.09765625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.7"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
     <col min="2" max="2" width="20" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3850,278 +3929,278 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B3" s="11"/>
       <c r="D3" s="10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B7" s="11"/>
       <c r="D7" s="10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="D9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="D10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B12" s="11"/>
       <c r="D12" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B14" s="13"/>
       <c r="C14" s="14"/>
       <c r="E14" s="12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="7:7" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="7:7" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="G18" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="5:7" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="5:7" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F40" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="42" spans="5:7" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="5:7" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="G42" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="43" spans="5:7" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="5:7" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="G43" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="5:7" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="5:7" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="G44" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="45" spans="5:7" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="5:7" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="G45" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="47" spans="5:7" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="5:7" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E47" s="15" t="s">
         <v>21</v>
       </c>
       <c r="F47" s="15"/>
     </row>
-    <row r="49" spans="5:7" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="5:7" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F49" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="50" spans="5:7" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="5:7" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="G50" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="52" spans="5:7" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="5:7" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E52" s="15" t="s">
         <v>34</v>
       </c>
       <c r="F52" s="15"/>
     </row>
-    <row r="54" spans="5:7" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="5:7" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F54" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="56" spans="5:7" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="5:7" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F56" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="69" spans="6:10" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="6:10" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F69" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="71" spans="6:10" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="6:10" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="H71" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="74" spans="6:10" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="6:10" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="H74" s="16" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="76" spans="6:10" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="6:10" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="I76" s="17" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="78" spans="6:10" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="6:10" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="J78" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="80" spans="6:10" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="6:10" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="J80" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="82" spans="9:13" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="9:13" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="J82" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="84" spans="9:13" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="84" spans="9:13" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="K84" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="86" spans="9:13" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="86" spans="9:13" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="I86" s="17" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="88" spans="9:13" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="88" spans="9:13" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="J88" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="89" spans="9:13" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="9:13" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="K89" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="91" spans="9:13" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="91" spans="9:13" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="L91" s="16" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="93" spans="9:13" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="93" spans="9:13" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="M93" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="94" spans="9:13" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="94" spans="9:13" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="M94" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="95" spans="9:13" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="95" spans="9:13" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="M95" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="97" spans="9:12" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="9:12" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="K97" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="99" spans="9:12" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="99" spans="9:12" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="L99" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="101" spans="9:12" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="101" spans="9:12" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="J101" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="103" spans="9:12" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="103" spans="9:12" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="I103" s="16" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="105" spans="9:12" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="105" spans="9:12" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="J105" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="107" spans="9:12" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="107" spans="9:12" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="K107" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="109" spans="9:12" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="109" spans="9:12" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="K109" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="111" spans="9:12" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="111" spans="9:12" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="L111" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="113" spans="9:22" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="113" spans="9:22" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="I113" s="16" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="114" spans="9:22" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="114" spans="9:22" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="I114" s="16"/>
     </row>
-    <row r="115" spans="9:22" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="115" spans="9:22" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="I115" s="16"/>
       <c r="J115" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="116" spans="9:22" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="116" spans="9:22" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="I116" s="16"/>
     </row>
-    <row r="117" spans="9:22" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="117" spans="9:22" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="I117" s="16"/>
       <c r="K117" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="118" spans="9:22" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="118" spans="9:22" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="I118" s="16"/>
     </row>
-    <row r="119" spans="9:22" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="119" spans="9:22" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="K119" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="121" spans="9:22" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="121" spans="9:22" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="K121" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="122" spans="9:22" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="122" spans="9:22" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="L122" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="124" spans="9:22" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="124" spans="9:22" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="I124" s="16" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="125" spans="9:22" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="125" spans="9:22" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="I125" s="16"/>
     </row>
-    <row r="126" spans="9:22" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="126" spans="9:22" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="I126" t="s">
         <v>42</v>
       </c>
@@ -4129,7 +4208,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="127" spans="9:22" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="127" spans="9:22" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="J127" t="s">
         <v>115</v>
       </c>
@@ -4137,7 +4216,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="128" spans="9:22" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="128" spans="9:22" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="I128" t="s">
         <v>116</v>
       </c>
@@ -4145,7 +4224,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="129" spans="5:22" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="129" spans="5:22" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="J129" t="s">
         <v>43</v>
       </c>
@@ -4153,7 +4232,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="131" spans="5:22" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="131" spans="5:22" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="I131" t="s">
         <v>47</v>
       </c>
@@ -4161,7 +4240,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="132" spans="5:22" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="132" spans="5:22" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="J132" t="s">
         <v>49</v>
       </c>
@@ -4169,7 +4248,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="133" spans="5:22" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="133" spans="5:22" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="I133" t="s">
         <v>118</v>
       </c>
@@ -4177,7 +4256,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="134" spans="5:22" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="134" spans="5:22" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="J134" t="s">
         <v>50</v>
       </c>
@@ -4185,357 +4264,378 @@
         <v>52</v>
       </c>
     </row>
-    <row r="136" spans="5:22" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="136" spans="5:22" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="G136" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="138" spans="5:22" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="138" spans="5:22" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="G138" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="144" spans="5:22" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="144" spans="5:22" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E144" s="15" t="s">
         <v>24</v>
       </c>
       <c r="F144" s="15"/>
     </row>
-    <row r="146" spans="5:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="146" spans="5:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F146" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="147" spans="5:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="147" spans="5:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="G147" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="149" spans="5:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="149" spans="5:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="G149" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="151" spans="5:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="151" spans="5:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="H151" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="153" spans="5:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="153" spans="5:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="G153" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="154" spans="5:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="154" spans="5:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="H154" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="158" spans="5:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="158" spans="5:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E158" s="15" t="s">
         <v>29</v>
       </c>
       <c r="F158" s="15"/>
     </row>
-    <row r="160" spans="5:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="160" spans="5:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F160" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="162" spans="5:9" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="G162" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="164" spans="5:9" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G164" t="s">
+    <row r="164" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="I164" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="J165" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="G167" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="165" spans="5:9" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H165" t="s">
+    <row r="168" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="H168" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="167" spans="5:9" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="I167" t="s">
+    <row r="170" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="I170" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="170" spans="5:9" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="E170" s="16" t="s">
+    <row r="171" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A171" s="20">
+        <v>46073</v>
+      </c>
+      <c r="B171" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="J171" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="E173" s="16" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="172" spans="5:9" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F172" t="s">
+    <row r="175" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="F175" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="174" spans="5:9" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G174" t="s">
+    <row r="177" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="G177" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="177" spans="2:5" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B177" s="13"/>
-      <c r="C177" s="14"/>
-      <c r="E177" s="12" t="s">
+    <row r="180" spans="2:7" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B180" s="13"/>
+      <c r="C180" s="14"/>
+      <c r="E180" s="12" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="179" spans="2:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="E179" t="s">
+    <row r="182" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="E182" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="181" spans="2:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="E181" t="s">
+    <row r="184" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="E184" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="197" spans="6:23" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G197" t="s">
+    <row r="200" spans="6:23" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="G200" t="s">
         <v>59</v>
       </c>
-      <c r="J197" t="s">
+      <c r="J200" t="s">
         <v>60</v>
       </c>
-      <c r="M197" t="s">
+      <c r="M200" t="s">
         <v>61</v>
       </c>
-      <c r="Q197" t="s">
+      <c r="Q200" t="s">
         <v>62</v>
       </c>
-      <c r="T197" t="s">
+      <c r="T200" t="s">
         <v>63</v>
       </c>
-      <c r="W197" t="s">
+      <c r="W200" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="200" spans="6:23" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F200" t="s">
+    <row r="203" spans="6:23" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="F203" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="202" spans="6:23" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G202" t="s">
+    <row r="205" spans="6:23" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="G205" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="204" spans="6:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H204" s="16" t="s">
+    <row r="207" spans="6:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="H207" s="16" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="205" spans="6:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="206" spans="6:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="I206" t="s">
+    <row r="208" spans="6:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.7"/>
+    <row r="209" spans="6:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="I209" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="207" spans="6:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="208" spans="6:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="J208" t="s">
+    <row r="210" spans="6:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.7"/>
+    <row r="211" spans="6:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="J211" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="209" spans="6:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="210" spans="6:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="J210" t="s">
+    <row r="212" spans="6:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.7"/>
+    <row r="213" spans="6:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="J213" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="211" spans="6:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="212" spans="6:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="213" spans="6:11" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H213" t="s">
+    <row r="214" spans="6:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.7"/>
+    <row r="215" spans="6:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.7"/>
+    <row r="216" spans="6:11" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="H216" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="215" spans="6:11" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="I215" t="s">
+    <row r="218" spans="6:11" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="I218" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="217" spans="6:11" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="J217" t="s">
+    <row r="220" spans="6:11" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="J220" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="221" spans="6:11" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F221" s="15" t="s">
+    <row r="224" spans="6:11" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="F224" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="G221" s="15"/>
-      <c r="H221" s="15"/>
-      <c r="I221" s="15"/>
-      <c r="J221" s="15"/>
-      <c r="K221" s="15"/>
-    </row>
-    <row r="223" spans="6:11" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G223" t="s">
+      <c r="G224" s="15"/>
+      <c r="H224" s="15"/>
+      <c r="I224" s="15"/>
+      <c r="J224" s="15"/>
+      <c r="K224" s="15"/>
+    </row>
+    <row r="226" spans="7:13" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="G226" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="225" spans="7:13" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H225" t="s">
+    <row r="228" spans="7:13" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="H228" t="s">
         <v>68</v>
       </c>
-      <c r="M225" t="s">
+      <c r="M228" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="226" spans="7:13" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H226" t="s">
+    <row r="229" spans="7:13" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="H229" t="s">
         <v>70</v>
       </c>
-      <c r="M226" t="s">
+      <c r="M229" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="227" spans="7:13" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H227" t="s">
+    <row r="230" spans="7:13" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="H230" t="s">
         <v>69</v>
       </c>
-      <c r="M227" t="s">
+      <c r="M230" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="230" spans="7:13" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G230" s="15" t="s">
+    <row r="233" spans="7:13" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="G233" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="H230" s="15"/>
-    </row>
-    <row r="232" spans="7:13" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H232" t="s">
+      <c r="H233" s="15"/>
+    </row>
+    <row r="235" spans="7:13" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="H235" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="234" spans="7:13" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="I234" t="s">
+    <row r="237" spans="7:13" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="I237" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="236" spans="7:13" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="I236" t="s">
+    <row r="239" spans="7:13" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="I239" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="237" spans="7:13" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="I237" t="s">
+    <row r="240" spans="7:13" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="I240" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="239" spans="7:13" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="I239" s="16" t="s">
+    <row r="242" spans="7:11" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="I242" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="J239" s="16"/>
-      <c r="K239" s="16"/>
-    </row>
-    <row r="241" spans="7:10" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="J241" t="s">
+      <c r="J242" s="16"/>
+      <c r="K242" s="16"/>
+    </row>
+    <row r="244" spans="7:11" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="J244" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="243" spans="7:10" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="J243" t="s">
+    <row r="246" spans="7:11" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="J246" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="244" spans="7:10" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="J244" t="s">
+    <row r="247" spans="7:11" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="J247" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="246" spans="7:10" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G246" s="15" t="s">
+    <row r="249" spans="7:11" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="G249" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="H246" s="15"/>
-    </row>
-    <row r="248" spans="7:10" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H248" t="s">
+      <c r="H249" s="15"/>
+    </row>
+    <row r="251" spans="7:11" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="H251" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="250" spans="7:10" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="I250" t="s">
+    <row r="253" spans="7:11" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="I253" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="252" spans="7:10" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="I252" s="16" t="s">
+    <row r="255" spans="7:11" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="I255" s="16" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="254" spans="7:10" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="J254" t="s">
+    <row r="257" spans="7:10" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="J257" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="256" spans="7:10" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="J256" t="s">
+    <row r="259" spans="7:10" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="J259" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="257" spans="6:10" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="J257" t="s">
+    <row r="260" spans="7:10" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="J260" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="259" spans="6:10" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G259" s="15" t="s">
+    <row r="262" spans="7:10" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="G262" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="H259" s="15"/>
-    </row>
-    <row r="261" spans="6:10" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H261" t="s">
+      <c r="H262" s="15"/>
+    </row>
+    <row r="264" spans="7:10" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="H264" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="263" spans="6:10" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="I263" s="16" t="s">
+    <row r="266" spans="7:10" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="I266" s="16" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="265" spans="6:10" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="J265" t="s">
+    <row r="268" spans="7:10" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="J268" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="267" spans="6:10" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="J267" t="s">
+    <row r="270" spans="7:10" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="J270" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="268" spans="6:10" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="J268" t="s">
+    <row r="271" spans="7:10" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="J271" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="271" spans="6:10" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F271" s="16" t="s">
+    <row r="274" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="F274" s="16" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="273" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G273" t="s">
+    <row r="276" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="G276" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="275" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H275" t="s">
+    <row r="278" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="H278" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="278" spans="2:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B278" s="18"/>
-      <c r="D278" s="19" t="s">
+    <row r="281" spans="2:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B281" s="18"/>
+      <c r="D281" s="19" t="s">
         <v>136</v>
       </c>
     </row>

--- a/Document/300_DUYDキャラクター仕様.xlsx
+++ b/Document/300_DUYDキャラクター仕様.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\新しいフォルダー\Document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\新しいフォルダー (2)\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10AB9B4D-31B7-4503-8FD2-8538F66BF526}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B6B5183-13ED-497F-8C2A-348C4560661C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{A7C1605A-4F8D-422A-A50A-47C3F46D6375}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{A7C1605A-4F8D-422A-A50A-47C3F46D6375}"/>
   </bookViews>
   <sheets>
     <sheet name="更新履歴" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="139">
   <si>
     <t>更新履歴</t>
     <rPh sb="0" eb="4">
@@ -1563,71 +1563,6 @@
     <t>新規作成</t>
     <rPh sb="0" eb="4">
       <t>シンキサクセイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>仕様追加</t>
-    <rPh sb="0" eb="4">
-      <t>シヨウツイカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>また筋力ステータス（Sp）が２上がるごとに石の最大所持数が１増えます</t>
-    <rPh sb="2" eb="4">
-      <t>キンリョク</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>イシ</t>
-    </rPh>
-    <rPh sb="23" eb="28">
-      <t>サイダイショジスウ</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>フ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>持っている石がなくなったら攻撃できません</t>
-    <rPh sb="0" eb="1">
-      <t>モ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>イシ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>コウゲキ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>岩を破壊すると補充できます</t>
-    <rPh sb="0" eb="1">
-      <t>イワ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ハカイ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ホジュウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>攻撃に関する仕様追加</t>
-    <rPh sb="0" eb="2">
-      <t>コウゲキ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>カン</t>
-    </rPh>
-    <rPh sb="6" eb="10">
-      <t>シヨウツイカ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1938,8 +1873,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3695700" y="8591550"/>
-          <a:ext cx="3395663" cy="1671638"/>
+          <a:off x="3689985" y="8591550"/>
+          <a:ext cx="3355658" cy="1671638"/>
           <a:chOff x="3681413" y="8677275"/>
           <a:chExt cx="3295650" cy="1671638"/>
         </a:xfrm>
@@ -2572,8 +2507,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7339012" y="8605838"/>
-          <a:ext cx="3915594" cy="600179"/>
+          <a:off x="7289482" y="8605838"/>
+          <a:ext cx="3869874" cy="600179"/>
           <a:chOff x="8767763" y="5857875"/>
           <a:chExt cx="3801294" cy="600179"/>
         </a:xfrm>
@@ -3439,13 +3374,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>185</xdr:row>
+      <xdr:row>182</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>197</xdr:row>
+      <xdr:row>194</xdr:row>
       <xdr:rowOff>152399</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3489,13 +3424,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>185</xdr:row>
+      <xdr:row>182</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>21058</xdr:colOff>
-      <xdr:row>198</xdr:row>
+      <xdr:row>195</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3835,27 +3770,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E2D295A-9295-46AC-88E4-F7ADF9D99499}">
-  <dimension ref="B1:H6"/>
+  <dimension ref="B1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultColWidth="2.09765625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="5" max="5" width="16.1875" customWidth="1"/>
-    <col min="6" max="6" width="7.3125" customWidth="1"/>
+    <col min="5" max="5" width="16.19921875" customWidth="1"/>
+    <col min="6" max="6" width="7.296875" customWidth="1"/>
     <col min="7" max="7" width="21.5" customWidth="1"/>
-    <col min="8" max="8" width="15.125" customWidth="1"/>
+    <col min="8" max="8" width="15.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" s="1" customFormat="1" ht="32.25" x14ac:dyDescent="0.7">
+    <row r="1" spans="2:8" s="1" customFormat="1" ht="32.4" x14ac:dyDescent="0.45">
       <c r="B1" s="3"/>
       <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="4" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E4" s="5" t="s">
         <v>3</v>
       </c>
@@ -3869,7 +3804,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="5" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E5" s="20">
         <v>46066</v>
       </c>
@@ -3881,20 +3816,6 @@
       </c>
       <c r="H5" t="s">
         <v>138</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="E6" s="20">
-        <v>46073</v>
-      </c>
-      <c r="F6" t="s">
-        <v>137</v>
-      </c>
-      <c r="G6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H6" t="s">
-        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -3906,19 +3827,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFD89370-1DE1-4DF5-942C-CF8F59DF7864}">
-  <dimension ref="A1:W281"/>
+  <dimension ref="A1:W278"/>
   <sheetViews>
-    <sheetView topLeftCell="A145" workbookViewId="0">
-      <selection activeCell="A171" sqref="A171"/>
+    <sheetView tabSelected="1" topLeftCell="B181" workbookViewId="0">
+      <selection activeCell="AI195" sqref="AI195"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultColWidth="2.09765625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
     <col min="2" max="2" width="20" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:6" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3929,278 +3850,278 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="3" spans="1:6" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B3" s="11"/>
       <c r="D3" s="10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="5" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="7" spans="1:6" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="11"/>
       <c r="D7" s="10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="9" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="10" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="12" spans="1:6" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="11"/>
       <c r="D12" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="14" spans="1:6" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B14" s="13"/>
       <c r="C14" s="14"/>
       <c r="E14" s="12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="16" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="7:7" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="18" spans="7:7" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G18" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="5:7" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="40" spans="5:7" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F40" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="42" spans="5:7" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="42" spans="5:7" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G42" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="43" spans="5:7" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="43" spans="5:7" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G43" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="5:7" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="44" spans="5:7" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G44" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="45" spans="5:7" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="45" spans="5:7" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G45" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="47" spans="5:7" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="47" spans="5:7" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E47" s="15" t="s">
         <v>21</v>
       </c>
       <c r="F47" s="15"/>
     </row>
-    <row r="49" spans="5:7" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="49" spans="5:7" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F49" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="50" spans="5:7" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="50" spans="5:7" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G50" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="52" spans="5:7" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="52" spans="5:7" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E52" s="15" t="s">
         <v>34</v>
       </c>
       <c r="F52" s="15"/>
     </row>
-    <row r="54" spans="5:7" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="54" spans="5:7" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F54" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="56" spans="5:7" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="56" spans="5:7" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F56" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="69" spans="6:10" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="69" spans="6:10" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F69" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="71" spans="6:10" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="71" spans="6:10" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H71" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="74" spans="6:10" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="74" spans="6:10" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H74" s="16" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="76" spans="6:10" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="76" spans="6:10" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I76" s="17" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="78" spans="6:10" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="78" spans="6:10" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="J78" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="80" spans="6:10" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="80" spans="6:10" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="J80" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="82" spans="9:13" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="82" spans="9:13" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="J82" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="84" spans="9:13" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="84" spans="9:13" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="K84" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="86" spans="9:13" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="86" spans="9:13" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I86" s="17" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="88" spans="9:13" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="88" spans="9:13" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="J88" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="89" spans="9:13" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="89" spans="9:13" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="K89" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="91" spans="9:13" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="91" spans="9:13" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="L91" s="16" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="93" spans="9:13" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="93" spans="9:13" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="M93" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="94" spans="9:13" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="94" spans="9:13" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="M94" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="95" spans="9:13" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="95" spans="9:13" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="M95" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="97" spans="9:12" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="97" spans="9:12" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="K97" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="99" spans="9:12" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="99" spans="9:12" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="L99" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="101" spans="9:12" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="101" spans="9:12" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="J101" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="103" spans="9:12" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="103" spans="9:12" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I103" s="16" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="105" spans="9:12" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="105" spans="9:12" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="J105" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="107" spans="9:12" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="107" spans="9:12" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="K107" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="109" spans="9:12" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="109" spans="9:12" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="K109" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="111" spans="9:12" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="111" spans="9:12" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="L111" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="113" spans="9:22" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="113" spans="9:22" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I113" s="16" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="114" spans="9:22" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="114" spans="9:22" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I114" s="16"/>
     </row>
-    <row r="115" spans="9:22" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="115" spans="9:22" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I115" s="16"/>
       <c r="J115" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="116" spans="9:22" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="116" spans="9:22" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I116" s="16"/>
     </row>
-    <row r="117" spans="9:22" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="117" spans="9:22" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I117" s="16"/>
       <c r="K117" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="118" spans="9:22" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="118" spans="9:22" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I118" s="16"/>
     </row>
-    <row r="119" spans="9:22" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="119" spans="9:22" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="K119" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="121" spans="9:22" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="121" spans="9:22" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="K121" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="122" spans="9:22" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="122" spans="9:22" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="L122" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="124" spans="9:22" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="124" spans="9:22" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I124" s="16" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="125" spans="9:22" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="125" spans="9:22" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I125" s="16"/>
     </row>
-    <row r="126" spans="9:22" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="126" spans="9:22" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I126" t="s">
         <v>42</v>
       </c>
@@ -4208,7 +4129,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="127" spans="9:22" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="127" spans="9:22" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="J127" t="s">
         <v>115</v>
       </c>
@@ -4216,7 +4137,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="128" spans="9:22" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="128" spans="9:22" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I128" t="s">
         <v>116</v>
       </c>
@@ -4224,7 +4145,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="129" spans="5:22" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="129" spans="5:22" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="J129" t="s">
         <v>43</v>
       </c>
@@ -4232,7 +4153,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="131" spans="5:22" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="131" spans="5:22" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I131" t="s">
         <v>47</v>
       </c>
@@ -4240,7 +4161,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="132" spans="5:22" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="132" spans="5:22" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="J132" t="s">
         <v>49</v>
       </c>
@@ -4248,7 +4169,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="133" spans="5:22" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="133" spans="5:22" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I133" t="s">
         <v>118</v>
       </c>
@@ -4256,7 +4177,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="134" spans="5:22" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="134" spans="5:22" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="J134" t="s">
         <v>50</v>
       </c>
@@ -4264,378 +4185,357 @@
         <v>52</v>
       </c>
     </row>
-    <row r="136" spans="5:22" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="136" spans="5:22" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G136" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="138" spans="5:22" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="138" spans="5:22" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G138" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="144" spans="5:22" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="144" spans="5:22" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E144" s="15" t="s">
         <v>24</v>
       </c>
       <c r="F144" s="15"/>
     </row>
-    <row r="146" spans="5:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="146" spans="5:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F146" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="147" spans="5:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="147" spans="5:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G147" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="149" spans="5:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="149" spans="5:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G149" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="151" spans="5:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="151" spans="5:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H151" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="153" spans="5:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="153" spans="5:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G153" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="154" spans="5:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="154" spans="5:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H154" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="158" spans="5:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="158" spans="5:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E158" s="15" t="s">
         <v>29</v>
       </c>
       <c r="F158" s="15"/>
     </row>
-    <row r="160" spans="5:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="160" spans="5:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F160" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="162" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="162" spans="5:9" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G162" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="164" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="I164" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="165" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="J165" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="167" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="G167" t="s">
+    <row r="164" spans="5:9" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G164" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="168" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="H168" t="s">
+    <row r="165" spans="5:9" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H165" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="170" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="I170" t="s">
+    <row r="167" spans="5:9" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I167" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="171" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A171" s="20">
-        <v>46073</v>
-      </c>
-      <c r="B171" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="J171" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="173" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="E173" s="16" t="s">
+    <row r="170" spans="5:9" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E170" s="16" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="175" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="F175" t="s">
+    <row r="172" spans="5:9" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F172" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="177" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="G177" t="s">
+    <row r="174" spans="5:9" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G174" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="180" spans="2:7" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B180" s="13"/>
-      <c r="C180" s="14"/>
-      <c r="E180" s="12" t="s">
+    <row r="177" spans="2:5" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B177" s="13"/>
+      <c r="C177" s="14"/>
+      <c r="E177" s="12" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="182" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="E182" t="s">
+    <row r="179" spans="2:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E179" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="184" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="E184" t="s">
+    <row r="181" spans="2:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E181" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="200" spans="6:23" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="G200" t="s">
+    <row r="197" spans="6:23" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G197" t="s">
         <v>59</v>
       </c>
-      <c r="J200" t="s">
+      <c r="J197" t="s">
         <v>60</v>
       </c>
-      <c r="M200" t="s">
+      <c r="M197" t="s">
         <v>61</v>
       </c>
-      <c r="Q200" t="s">
+      <c r="Q197" t="s">
         <v>62</v>
       </c>
-      <c r="T200" t="s">
+      <c r="T197" t="s">
         <v>63</v>
       </c>
-      <c r="W200" t="s">
+      <c r="W197" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="203" spans="6:23" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="F203" t="s">
+    <row r="200" spans="6:23" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F200" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="205" spans="6:23" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="G205" t="s">
+    <row r="202" spans="6:23" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G202" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="207" spans="6:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="H207" s="16" t="s">
+    <row r="204" spans="6:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H204" s="16" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="208" spans="6:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.7"/>
-    <row r="209" spans="6:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="I209" t="s">
+    <row r="205" spans="6:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="206" spans="6:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I206" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="210" spans="6:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.7"/>
-    <row r="211" spans="6:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="J211" t="s">
+    <row r="207" spans="6:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="208" spans="6:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="J208" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="212" spans="6:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.7"/>
-    <row r="213" spans="6:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="J213" t="s">
+    <row r="209" spans="6:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="210" spans="6:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="J210" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="214" spans="6:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.7"/>
-    <row r="215" spans="6:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.7"/>
-    <row r="216" spans="6:11" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="H216" t="s">
+    <row r="211" spans="6:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="212" spans="6:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="213" spans="6:11" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H213" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="218" spans="6:11" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="I218" t="s">
+    <row r="215" spans="6:11" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I215" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="220" spans="6:11" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="J220" t="s">
+    <row r="217" spans="6:11" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="J217" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="224" spans="6:11" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="F224" s="15" t="s">
+    <row r="221" spans="6:11" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F221" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="G224" s="15"/>
-      <c r="H224" s="15"/>
-      <c r="I224" s="15"/>
-      <c r="J224" s="15"/>
-      <c r="K224" s="15"/>
-    </row>
-    <row r="226" spans="7:13" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="G226" t="s">
+      <c r="G221" s="15"/>
+      <c r="H221" s="15"/>
+      <c r="I221" s="15"/>
+      <c r="J221" s="15"/>
+      <c r="K221" s="15"/>
+    </row>
+    <row r="223" spans="6:11" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G223" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="228" spans="7:13" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="H228" t="s">
+    <row r="225" spans="7:13" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H225" t="s">
         <v>68</v>
       </c>
-      <c r="M228" t="s">
+      <c r="M225" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="229" spans="7:13" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="H229" t="s">
+    <row r="226" spans="7:13" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H226" t="s">
         <v>70</v>
       </c>
-      <c r="M229" t="s">
+      <c r="M226" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="230" spans="7:13" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="H230" t="s">
+    <row r="227" spans="7:13" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H227" t="s">
         <v>69</v>
       </c>
-      <c r="M230" t="s">
+      <c r="M227" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="233" spans="7:13" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="G233" s="15" t="s">
+    <row r="230" spans="7:13" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G230" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="H233" s="15"/>
-    </row>
-    <row r="235" spans="7:13" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="H235" t="s">
+      <c r="H230" s="15"/>
+    </row>
+    <row r="232" spans="7:13" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H232" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="237" spans="7:13" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="234" spans="7:13" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I234" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="236" spans="7:13" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I236" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="237" spans="7:13" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I237" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="239" spans="7:13" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="I239" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="240" spans="7:13" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="I240" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="242" spans="7:11" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="I242" s="16" t="s">
+    <row r="239" spans="7:13" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I239" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="J242" s="16"/>
-      <c r="K242" s="16"/>
-    </row>
-    <row r="244" spans="7:11" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="J239" s="16"/>
+      <c r="K239" s="16"/>
+    </row>
+    <row r="241" spans="7:10" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="J241" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="243" spans="7:10" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="J243" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="244" spans="7:10" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="J244" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="246" spans="7:11" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="J246" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="247" spans="7:11" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="J247" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="249" spans="7:11" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="G249" s="15" t="s">
+    <row r="246" spans="7:10" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G246" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="H249" s="15"/>
-    </row>
-    <row r="251" spans="7:11" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="H251" t="s">
+      <c r="H246" s="15"/>
+    </row>
+    <row r="248" spans="7:10" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H248" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="253" spans="7:11" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="I253" t="s">
+    <row r="250" spans="7:10" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I250" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="255" spans="7:11" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="I255" s="16" t="s">
+    <row r="252" spans="7:10" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I252" s="16" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="257" spans="7:10" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="254" spans="7:10" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="J254" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="256" spans="7:10" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="J256" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="257" spans="6:10" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="J257" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="259" spans="7:10" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="J259" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="260" spans="7:10" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="J260" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="262" spans="7:10" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="G262" s="15" t="s">
+    <row r="259" spans="6:10" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G259" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="H262" s="15"/>
-    </row>
-    <row r="264" spans="7:10" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="H264" t="s">
+      <c r="H259" s="15"/>
+    </row>
+    <row r="261" spans="6:10" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H261" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="266" spans="7:10" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="I266" s="16" t="s">
+    <row r="263" spans="6:10" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I263" s="16" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="268" spans="7:10" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="265" spans="6:10" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="J265" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="267" spans="6:10" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="J267" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="268" spans="6:10" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="J268" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="270" spans="7:10" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="J270" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="271" spans="7:10" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="J271" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="274" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="F274" s="16" t="s">
+    <row r="271" spans="6:10" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F271" s="16" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="276" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="G276" t="s">
+    <row r="273" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G273" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="278" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="H278" t="s">
+    <row r="275" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H275" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="281" spans="2:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B281" s="18"/>
-      <c r="D281" s="19" t="s">
+    <row r="278" spans="2:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B278" s="18"/>
+      <c r="D278" s="19" t="s">
         <v>136</v>
       </c>
     </row>
